--- a/Codigo/Bases/Poblacion_estimacion_2022_por_sexo.xlsx
+++ b/Codigo/Bases/Poblacion_estimacion_2022_por_sexo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pgalvez\OneDrive - ine.gob.gt\Documentos\GitHub\CompendioGenero2023\Codigo\Bases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6076A49-C44B-49ED-BCAA-0BA00D6E595D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA4280C-0CA0-45A1-B480-990498E3D786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,6 +118,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -155,9 +158,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC5FCA6-07E5-4B98-B4FC-9BD6DE2EB45F}">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,7 +690,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -697,7 +701,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -708,7 +712,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -719,7 +723,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -730,7 +734,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
@@ -741,7 +745,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -752,7 +756,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -763,7 +767,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
@@ -774,7 +778,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>19</v>
       </c>
@@ -785,29 +789,29 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>870450</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>860515</v>
       </c>
-      <c r="C26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27">
-        <v>870450</v>
-      </c>
       <c r="C27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>3</v>
       </c>
@@ -818,7 +822,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>4</v>
       </c>
@@ -829,7 +833,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>5</v>
       </c>
@@ -840,7 +844,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
@@ -850,8 +854,9 @@
       <c r="C31" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>7</v>
       </c>
@@ -984,24 +989,27 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C44">
+    <sortCondition ref="C1:C44"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A4 A25" twoDigitTextYear="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE779F97-7D2D-484D-86F0-D7D373BDB3E6}">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.140625" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1009,8 +1017,12 @@
         <f>'2022'!B2+'2022'!B23</f>
         <v>1870482</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="2">
+        <f>B1/1000</f>
+        <v>1870.482</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1018,8 +1030,12 @@
         <f>'2022'!B3+'2022'!B24</f>
         <v>1864141</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="2">
+        <f t="shared" ref="C2:C21" si="0">B2/1000</f>
+        <v>1864.1410000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -1027,26 +1043,38 @@
         <f>'2022'!B4+'2022'!B25</f>
         <v>1795928</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="2">
+        <f t="shared" si="0"/>
+        <v>1795.9280000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <f>'2022'!B6+'2022'!B27</f>
+        <v>1741994</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" si="0"/>
+        <v>1741.9939999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <f>'2022'!B5+'2022'!B26</f>
-        <v>1747592</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <f>'2022'!B6+'2022'!B27</f>
-        <v>1751929</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1757527</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" si="0"/>
+        <v>1757.527</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1054,8 +1082,12 @@
         <f>'2022'!B7+'2022'!B28</f>
         <v>1571036</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>1571.0360000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1063,8 +1095,12 @@
         <f>'2022'!B8+'2022'!B29</f>
         <v>1382859</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>1382.8589999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1072,8 +1108,12 @@
         <f>'2022'!B9+'2022'!B30</f>
         <v>1147281</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>1147.2809999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1081,8 +1121,12 @@
         <f>'2022'!B10+'2022'!B31</f>
         <v>949131</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>949.13099999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1090,8 +1134,12 @@
         <f>'2022'!B11+'2022'!B32</f>
         <v>785203</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>785.20299999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1099,8 +1147,12 @@
         <f>'2022'!B12+'2022'!B33</f>
         <v>628300</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>628.29999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,8 +1160,12 @@
         <f>'2022'!B13+'2022'!B34</f>
         <v>498964</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>498.964</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -1117,8 +1173,12 @@
         <f>'2022'!B14+'2022'!B35</f>
         <v>403155</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>403.15499999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -1126,8 +1186,12 @@
         <f>'2022'!B15+'2022'!B36</f>
         <v>319475</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>319.47500000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -1135,8 +1199,12 @@
         <f>'2022'!B16+'2022'!B37</f>
         <v>246256</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>246.256</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -1144,8 +1212,12 @@
         <f>'2022'!B17+'2022'!B38</f>
         <v>178291</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>178.291</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -1153,8 +1225,12 @@
         <f>'2022'!B18+'2022'!B39</f>
         <v>113834</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>113.834</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -1162,8 +1238,12 @@
         <f>'2022'!B19+'2022'!B40</f>
         <v>63479</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
+        <v>63.478999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -1171,8 +1251,12 @@
         <f>'2022'!B20+'2022'!B41</f>
         <v>28548</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="2">
+        <f t="shared" si="0"/>
+        <v>28.547999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -1180,8 +1264,12 @@
         <f>'2022'!B21+'2022'!B42</f>
         <v>9155</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="2">
+        <f t="shared" si="0"/>
+        <v>9.1549999999999994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -1189,38 +1277,42 @@
         <f>'2022'!B22+'2022'!B43</f>
         <v>2847</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" s="2">
+        <f t="shared" si="0"/>
+        <v>2.847</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
@@ -1254,6 +1346,9 @@
       <c r="A42" s="1"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B43">
+    <sortCondition descending="1" ref="B1:B43"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Codigo/Bases/Poblacion_estimacion_2022_por_sexo.xlsx
+++ b/Codigo/Bases/Poblacion_estimacion_2022_por_sexo.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pgalvez\OneDrive - ine.gob.gt\Documentos\GitHub\CompendioGenero2023\Codigo\Bases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA4280C-0CA0-45A1-B480-990498E3D786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D33761A-4FF4-40C2-A1DF-04C00A9D25C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2022" sheetId="31" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="32" r:id="rId2"/>
+    <sheet name="Cálculos" sheetId="33" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="32" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" iterate="1" iterateCount="1000" calcOnSave="0"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="29">
   <si>
     <t>0-4</t>
   </si>
@@ -112,6 +113,15 @@
   </si>
   <si>
     <t>Mujer</t>
+  </si>
+  <si>
+    <t>Mujeres</t>
+  </si>
+  <si>
+    <t>Hombres</t>
+  </si>
+  <si>
+    <t>Resta</t>
   </si>
 </sst>
 </file>
@@ -505,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC5FCA6-07E5-4B98-B4FC-9BD6DE2EB45F}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,7 +524,7 @@
     <col min="1" max="1" width="21" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -525,7 +535,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -535,8 +545,18 @@
       <c r="C2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>B2+B23</f>
+        <v>1870482</v>
+      </c>
+      <c r="G2">
+        <v>1870482</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -547,7 +567,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -558,7 +578,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -569,7 +589,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -580,7 +600,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -591,7 +611,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -602,7 +622,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -613,7 +633,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -624,7 +644,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -635,7 +655,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -646,7 +666,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -657,7 +677,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -668,7 +688,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -679,7 +699,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -997,11 +1017,80 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546EE1D8-A2BA-4732-AC22-5E1D2CDED0FE}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1">
+        <f>'2022'!B3+'2022'!B24</f>
+        <v>1864141</v>
+      </c>
+      <c r="C1">
+        <v>1864141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2">
+        <f>'2022'!B22+'2022'!B43</f>
+        <v>2847</v>
+      </c>
+      <c r="C2">
+        <v>2847</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3">
+        <f>SUM('2022'!B23:B43)</f>
+        <v>8817420</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <f>SUM('2022'!B2:B22)</f>
+        <v>8540466</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5">
+        <f>B3-B4</f>
+        <v>276954</v>
+      </c>
+      <c r="C5">
+        <v>276954</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE779F97-7D2D-484D-86F0-D7D373BDB3E6}">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
